--- a/Experiment3/Text_stimuli_exp3.xlsx
+++ b/Experiment3/Text_stimuli_exp3.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38453D6C-166C-4075-9ECC-763A0C850CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70260FA-39A2-430E-B959-CDDD8BB1E3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_GoBack" localSheetId="0">Tabelle1!$C$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -229,6 +232,18 @@
   </si>
   <si>
     <t>According to the passage, steam sterilization needs to be performed in a sealed chamber.</t>
+  </si>
+  <si>
+    <t>An early task will be to make sure the newfound microbes were not introduced while drilling through the ice into the lake, which involved a hot-water drilling technique designed to greatly reduce or eliminate any contamination that might come from other kerosene-based drilling technology, Christner said.</t>
+  </si>
+  <si>
+    <t>the ocean. Plastic bottles take many hundreds of years to disintegrate.</t>
+  </si>
+  <si>
+    <t>Unfortunately, for every six water bottles we use, only one makes it to the recycling bin. The rest are sent to landfills or, even worse, they end up as trash on the land and in rivers, lakes, and the ocean. Plastic bottles take many hundreds of years to disintegrate.</t>
+  </si>
+  <si>
+    <t>For centuries, time was measured by the position of the sun with the use of sundials. Noon was recognized when the sun was the highest in the sky, and cities would set their clock by this apparent solar time, even though some cities would often be on a slightly different time.</t>
   </si>
 </sst>
 </file>
@@ -284,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,41 +1130,62 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12">
+        <v>26</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="12">
+        <f t="shared" ref="H19:H21" si="1">IF(ISBLANK(C19),0,LEN(TRIM(C19))-LEN(SUBSTITUTE(C19," ",""))+1)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="12">
+        <v>47</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="12">
+        <v>49</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1209,21 +1248,20 @@
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
       <c r="H26" s="2">
         <f>SUM(H2:H16)</f>
         <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
+      <c r="C27" s="15"/>
       <c r="H27" s="2">
         <f>SUM(H3:H16)/3 -15</f>
         <v>232.33333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
+      <c r="C28" s="15"/>
       <c r="E28" s="2">
         <f>SUM(E2:E21, G2:G21)/(15*2)</f>
         <v>0.46666666666666667</v>
@@ -1231,6 +1269,14 @@
       <c r="H28" s="2">
         <f>AVERAGE(H2:H16)-1</f>
         <v>52.4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment3/Text_stimuli_exp3.xlsx
+++ b/Experiment3/Text_stimuli_exp3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70260FA-39A2-430E-B959-CDDD8BB1E3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECCD4BA-4F37-4F9C-8274-DB4B9B5A328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Steam sterilization is limited in the types of medical waste it can treat, but is appropriate for laboratory cultures and substances contaminated with infectious organisms. The waste is subjected to steam in a sealed, pressurized chamber. The liquid that may form is drained off to the sewer or sent for processing.</t>
   </si>
   <si>
-    <t>According to the passage, steam sterilization has unlimited medical uses in the treatment of waste.</t>
-  </si>
-  <si>
     <t>Interestingly, the heaviest isotopes physicists have managed to synthesize so far don't behave quite like science's best current models predict, so stable superheavy nuclei are likely to be full of surprises. Chemists cannot even predict with any certainty whether these materials will exist as gases, liquids, or solids at room temperature.</t>
   </si>
   <si>
@@ -244,6 +241,27 @@
   </si>
   <si>
     <t>For centuries, time was measured by the position of the sun with the use of sundials. Noon was recognized when the sun was the highest in the sky, and cities would set their clock by this apparent solar time, even though some cities would often be on a slightly different time.</t>
+  </si>
+  <si>
+    <t>According to Christner, the first task is to check for nuclear contamination.</t>
+  </si>
+  <si>
+    <t>The drilling technique used hot water.</t>
+  </si>
+  <si>
+    <t>According to the passage, half of all bottles make it to the recycling bin.</t>
+  </si>
+  <si>
+    <t>According to the passage, time was measured with sundials only for a couple of decades because a better method was soon discovered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the passage, cities would not always be aligned in the time they use. </t>
+  </si>
+  <si>
+    <t>According to the passage, steam sterilization has unlimited uses in the treatment of medical waste.</t>
+  </si>
+  <si>
+    <t>According to the passage, plastic bottles take 15 years to disintegrate.</t>
   </si>
 </sst>
 </file>
@@ -628,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,13 +1105,13 @@
         <v>59</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="12">
         <v>1</v>
@@ -1111,16 +1129,16 @@
         <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -1138,12 +1156,20 @@
         <v>26</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
       <c r="H19" s="12">
         <f t="shared" ref="H19:H21" si="1">IF(ISBLANK(C19),0,LEN(TRIM(C19))-LEN(SUBSTITUTE(C19," ",""))+1)</f>
         <v>46</v>
@@ -1157,12 +1183,20 @@
         <v>47</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
       <c r="H20" s="12">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1176,12 +1210,20 @@
         <v>49</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
       <c r="H21" s="12">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1263,8 +1305,8 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="E28" s="2">
-        <f>SUM(E2:E21, G2:G21)/(15*2)</f>
-        <v>0.46666666666666667</v>
+        <f>SUM(E2:E21, G2:G21)/(20*2)</f>
+        <v>0.4</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(H2:H16)-1</f>
@@ -1276,7 +1318,7 @@
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment3/Text_stimuli_exp3.xlsx
+++ b/Experiment3/Text_stimuli_exp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECCD4BA-4F37-4F9C-8274-DB4B9B5A328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB24B50-5A1D-48C5-911B-E943C1E2E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,13 +255,13 @@
     <t>According to the passage, time was measured with sundials only for a couple of decades because a better method was soon discovered.</t>
   </si>
   <si>
-    <t xml:space="preserve">According to the passage, cities would not always be aligned in the time they use. </t>
-  </si>
-  <si>
     <t>According to the passage, steam sterilization has unlimited uses in the treatment of medical waste.</t>
   </si>
   <si>
     <t>According to the passage, plastic bottles take 15 years to disintegrate.</t>
+  </si>
+  <si>
+    <t>According to the passage, cities would not always use exactly the same time.</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1105,7 @@
         <v>59</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" s="12">
         <v>1</v>

--- a/Experiment3/Text_stimuli_exp3.xlsx
+++ b/Experiment3/Text_stimuli_exp3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB24B50-5A1D-48C5-911B-E943C1E2E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105EFA10-2048-4E05-AD41-2F42FF087248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,8 +1291,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
-        <f>SUM(H2:H16)</f>
-        <v>801</v>
+        <f>SUM(H2:H21)</f>
+        <v>1049</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
